--- a/HicomIOS/Master/Template/Template_QuotationSummaryReport-Product.xlsx
+++ b/HicomIOS/Master/Template/Template_QuotationSummaryReport-Product.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IM-Soft\_Ourdream\Hi-Com04_1\HicomIOS\Master\Template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272AE701-D042-4EC3-B877-54F2A63FFD9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="19440" windowHeight="12240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>HI-COM CORPORATION (THAILAND) CO., LTD.</t>
   </si>
@@ -52,9 +58,6 @@
     <t>Address</t>
   </si>
   <si>
-    <t xml:space="preserve">Filter </t>
-  </si>
-  <si>
     <t>Air Compressor</t>
   </si>
   <si>
@@ -88,18 +91,6 @@
     <t>CONTACT</t>
   </si>
   <si>
-    <t>No. P/O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMOUNT </t>
-  </si>
-  <si>
-    <t>Customer Request</t>
-  </si>
-  <si>
-    <t>Test Run</t>
-  </si>
-  <si>
     <t>TEL</t>
   </si>
   <si>
@@ -127,49 +118,46 @@
     <t>Pressure(MPa)</t>
   </si>
   <si>
-    <t>Q't</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>Sent By</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>QUATATION DATE</t>
-  </si>
-  <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>QU STATUS</t>
+  </si>
+  <si>
+    <t>P/O No.</t>
+  </si>
+  <si>
+    <t>P/O Date</t>
+  </si>
+  <si>
+    <t>CREATE DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category ย่อย </t>
+  </si>
+  <si>
+    <t>QTY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="187" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -242,7 +230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -392,13 +380,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -421,13 +422,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -442,10 +443,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -460,7 +458,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -469,9 +467,6 @@
     <xf numFmtId="9" fontId="5" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -490,25 +485,70 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -534,16 +574,10 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="5" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="5" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -552,77 +586,26 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="187" fontId="5" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="จุลภาค" xfId="1" builtinId="3"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="เปอร์เซ็นต์" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -643,7 +626,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -685,7 +668,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -717,9 +700,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -751,6 +752,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -926,35 +945,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AJ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="37"/>
-    <col min="2" max="2" width="15.7109375" style="37" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="37"/>
-    <col min="6" max="6" width="18.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="37" customWidth="1"/>
-    <col min="9" max="28" width="9.140625" style="37"/>
-    <col min="29" max="29" width="10.42578125" style="37" bestFit="1" customWidth="1"/>
-    <col min="30" max="43" width="9.140625" style="37"/>
+    <col min="1" max="1" width="9.125" style="31"/>
+    <col min="2" max="2" width="15.75" style="31" customWidth="1"/>
+    <col min="3" max="5" width="9.125" style="31"/>
+    <col min="6" max="6" width="18.75" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.875" style="31" customWidth="1"/>
+    <col min="9" max="10" width="9.125" style="31"/>
+    <col min="11" max="11" width="12.75" style="31" bestFit="1" customWidth="1"/>
+    <col min="12" max="28" width="9.125" style="31"/>
+    <col min="29" max="29" width="10.375" style="31" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.75" style="31" bestFit="1" customWidth="1"/>
+    <col min="31" max="36" width="9.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="11" customFormat="1" ht="27.75">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:36" s="11" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -964,18 +986,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-      <c r="N1" s="59" t="s">
+      <c r="N1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="60" t="s">
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
       <c r="V1" s="4"/>
       <c r="W1" s="5"/>
       <c r="X1" s="6"/>
@@ -987,263 +1009,229 @@
       <c r="AE1" s="14"/>
       <c r="AF1" s="15"/>
       <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="15"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="15"/>
     </row>
-    <row r="2" spans="1:43" s="11" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:36" s="11" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="20"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="7"/>
       <c r="O2" s="3"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="61" t="s">
+      <c r="Q2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
       <c r="V2" s="4"/>
       <c r="W2" s="5"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="7"/>
-      <c r="Z2" s="21"/>
+      <c r="Z2" s="20"/>
       <c r="AA2" s="9"/>
       <c r="AB2" s="10"/>
       <c r="AD2" s="12"/>
       <c r="AE2" s="14"/>
       <c r="AF2" s="15"/>
       <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="15"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="15"/>
     </row>
-    <row r="3" spans="1:43" s="25" customFormat="1" ht="46.5">
-      <c r="A3" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="62" t="s">
+    <row r="3" spans="1:36" s="23" customFormat="1" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="65" t="s">
+      <c r="C3" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="67" t="s">
+      <c r="H3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="67" t="s">
+      <c r="I3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="69" t="s">
+      <c r="M3" s="47"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="70"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="72" t="s">
+      <c r="P3" s="50"/>
+      <c r="Q3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="72" t="s">
+      <c r="R3" s="50"/>
+      <c r="S3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="73"/>
-      <c r="S3" s="72" t="s">
+      <c r="T3" s="50"/>
+      <c r="U3" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="73"/>
-      <c r="U3" s="57" t="s">
+      <c r="V3" s="39"/>
+      <c r="W3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="V3" s="58"/>
-      <c r="W3" s="44" t="s">
+      <c r="X3" s="58"/>
+      <c r="Y3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="22" t="s">
+      <c r="Z3" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Z3" s="46" t="s">
+      <c r="AA3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="AA3" s="23" t="s">
+      <c r="AB3" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="AB3" s="46" t="s">
+      <c r="AC3" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AC3" s="48" t="s">
+      <c r="AD3" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE3" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF3" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG3" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="AD3" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE3" s="50" t="s">
+      <c r="AH3" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="AF3" s="24" t="s">
+      <c r="AI3" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AG3" s="52" t="s">
+      <c r="AJ3" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="52" t="s">
+    </row>
+    <row r="4" spans="1:36" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="54"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="55" t="s">
+      <c r="D4" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AO3" s="48" t="s">
+      <c r="E4" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="AP3" s="48" t="s">
+      <c r="F4" s="41"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="AQ3" s="42" t="s">
+      <c r="M4" s="28" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:43" s="25" customFormat="1" ht="23.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="66"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="R4" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="S4" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="T4" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="U4" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="V4" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="W4" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="X4" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="49"/>
-      <c r="AD4" s="49"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG4" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH4" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI4" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ4" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK4" s="36" t="s">
+      <c r="N4" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AL4" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM4" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN4" s="56"/>
-      <c r="AO4" s="49"/>
-      <c r="AP4" s="49"/>
-      <c r="AQ4" s="43"/>
+      <c r="O4" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="X4" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="62"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="64"/>
+      <c r="AH4" s="45"/>
+      <c r="AI4" s="45"/>
+      <c r="AJ4" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="K3:K4"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="Q2:U2"/>
@@ -1260,20 +1248,6 @@
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="AQ3:AQ4"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AG3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AN4"/>
-    <mergeCell ref="AO3:AO4"/>
-    <mergeCell ref="AP3:AP4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="U3:V3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HicomIOS/Master/Template/Template_QuotationSummaryReport-Product.xlsx
+++ b/HicomIOS/Master/Template/Template_QuotationSummaryReport-Product.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IM-Soft\_Ourdream\Hi-Com04_1\HicomIOS\Master\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272AE701-D042-4EC3-B877-54F2A63FFD9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A9B5C6-ADFA-4E75-BF8C-BC419B2B600B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,7 +399,7 @@
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -425,9 +425,6 @@
     <xf numFmtId="187" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -461,12 +458,6 @@
     <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -480,16 +471,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -577,9 +562,6 @@
     <xf numFmtId="187" fontId="5" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -601,6 +583,30 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="5" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="จุลภาค" xfId="1" builtinId="3"/>
@@ -948,35 +954,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="31"/>
-    <col min="2" max="2" width="15.75" style="31" customWidth="1"/>
-    <col min="3" max="5" width="9.125" style="31"/>
-    <col min="6" max="6" width="18.75" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.875" style="31" customWidth="1"/>
-    <col min="9" max="10" width="9.125" style="31"/>
-    <col min="11" max="11" width="12.75" style="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="28" width="9.125" style="31"/>
-    <col min="29" max="29" width="10.375" style="31" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.75" style="31" bestFit="1" customWidth="1"/>
-    <col min="31" max="36" width="9.125" style="31"/>
+    <col min="1" max="1" width="9.125" style="26"/>
+    <col min="2" max="2" width="15.75" style="26" customWidth="1"/>
+    <col min="3" max="5" width="9.125" style="26"/>
+    <col min="6" max="6" width="18.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.875" style="26" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="9.125" style="26"/>
+    <col min="11" max="11" width="12.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="24" width="9.125" style="26"/>
+    <col min="25" max="25" width="9.125" style="66"/>
+    <col min="26" max="27" width="9.125" style="62"/>
+    <col min="28" max="28" width="9.125" style="71"/>
+    <col min="29" max="29" width="10.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="31" max="36" width="9.125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="11" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:36" s="10" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -986,235 +995,235 @@
       <c r="K1" s="1"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="33" t="s">
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
       <c r="V1" s="4"/>
       <c r="W1" s="5"/>
       <c r="X1" s="6"/>
-      <c r="Y1" s="7"/>
+      <c r="Y1" s="63"/>
       <c r="Z1" s="8"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="10"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="16"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="9"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="15"/>
       <c r="AH1" s="3"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="15"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="14"/>
     </row>
-    <row r="2" spans="1:36" s="11" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+    <row r="2" spans="1:36" s="10" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="18"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="7"/>
       <c r="O2" s="3"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="34" t="s">
+      <c r="Q2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
       <c r="V2" s="4"/>
       <c r="W2" s="5"/>
       <c r="X2" s="6"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="10"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="16"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="9"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="15"/>
       <c r="AH2" s="3"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="15"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="14"/>
     </row>
-    <row r="3" spans="1:36" s="23" customFormat="1" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+    <row r="3" spans="1:36" s="20" customFormat="1" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="66" t="s">
+      <c r="K3" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="46" t="s">
+      <c r="L3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="49" t="s">
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="49" t="s">
+      <c r="P3" s="45"/>
+      <c r="Q3" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="50"/>
-      <c r="S3" s="49" t="s">
+      <c r="R3" s="45"/>
+      <c r="S3" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="50"/>
-      <c r="U3" s="37" t="s">
+      <c r="T3" s="45"/>
+      <c r="U3" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="39"/>
-      <c r="W3" s="57" t="s">
+      <c r="V3" s="34"/>
+      <c r="W3" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="21" t="s">
+      <c r="X3" s="53"/>
+      <c r="Y3" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="59" t="s">
+      <c r="Z3" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="AA3" s="22" t="s">
+      <c r="AA3" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="AB3" s="59" t="s">
+      <c r="AB3" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AC3" s="44" t="s">
+      <c r="AC3" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="AD3" s="44" t="s">
+      <c r="AD3" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AE3" s="61" t="s">
+      <c r="AE3" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="AF3" s="59" t="s">
+      <c r="AF3" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="AG3" s="63" t="s">
+      <c r="AG3" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="AH3" s="44" t="s">
+      <c r="AH3" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="AI3" s="44" t="s">
+      <c r="AI3" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="AJ3" s="55" t="s">
+      <c r="AJ3" s="50" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="24" t="s">
+    <row r="4" spans="1:36" s="20" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="49"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="25" t="s">
+      <c r="F4" s="36"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="N4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="25" t="s">
+      <c r="P4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="25" t="s">
+      <c r="Q4" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="25" t="s">
+      <c r="R4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="S4" s="25" t="s">
+      <c r="S4" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="T4" s="25" t="s">
+      <c r="T4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="U4" s="24" t="s">
+      <c r="U4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="V4" s="25" t="s">
+      <c r="V4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="W4" s="29" t="s">
+      <c r="W4" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="X4" s="25" t="s">
+      <c r="X4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="62"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="64"/>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="45"/>
-      <c r="AJ4" s="56"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="69"/>
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="69"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="56"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -1250,5 +1259,6 @@
     <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HicomIOS/Master/Template/Template_QuotationSummaryReport-Product.xlsx
+++ b/HicomIOS/Master/Template/Template_QuotationSummaryReport-Product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IM-Soft\_Ourdream\Hi-Com04_1\HicomIOS\Master\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A9B5C6-ADFA-4E75-BF8C-BC419B2B600B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F74F28-F006-4D32-A651-5D5A66FBC018}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,6 +477,78 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="5" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -492,13 +564,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -512,12 +578,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -541,72 +601,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="187" fontId="5" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="5" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="5" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="จุลภาค" xfId="1" builtinId="3"/>
@@ -954,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -969,23 +969,23 @@
     <col min="9" max="10" width="9.125" style="26"/>
     <col min="11" max="11" width="12.75" style="26" bestFit="1" customWidth="1"/>
     <col min="12" max="24" width="9.125" style="26"/>
-    <col min="25" max="25" width="9.125" style="66"/>
-    <col min="26" max="27" width="9.125" style="62"/>
-    <col min="28" max="28" width="9.125" style="71"/>
+    <col min="25" max="25" width="9.125" style="31"/>
+    <col min="26" max="27" width="9.125" style="27"/>
+    <col min="28" max="28" width="9.125" style="34"/>
     <col min="29" max="29" width="10.375" style="26" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10.75" style="26" bestFit="1" customWidth="1"/>
     <col min="31" max="36" width="9.125" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="10" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -995,22 +995,22 @@
       <c r="K1" s="1"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="28" t="s">
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
       <c r="V1" s="4"/>
       <c r="W1" s="5"/>
       <c r="X1" s="6"/>
-      <c r="Y1" s="63"/>
+      <c r="Y1" s="28"/>
       <c r="Z1" s="8"/>
       <c r="AA1" s="14"/>
       <c r="AB1" s="9"/>
@@ -1023,15 +1023,15 @@
       <c r="AJ1" s="14"/>
     </row>
     <row r="2" spans="1:36" s="10" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="17"/>
@@ -1041,17 +1041,17 @@
       <c r="N2" s="7"/>
       <c r="O2" s="3"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
       <c r="V2" s="4"/>
       <c r="W2" s="5"/>
       <c r="X2" s="6"/>
-      <c r="Y2" s="63"/>
+      <c r="Y2" s="28"/>
       <c r="Z2" s="19"/>
       <c r="AA2" s="14"/>
       <c r="AB2" s="9"/>
@@ -1064,100 +1064,100 @@
       <c r="AJ2" s="14"/>
     </row>
     <row r="3" spans="1:36" s="20" customFormat="1" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35" t="s">
+      <c r="D3" s="58"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="K3" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44" t="s">
+      <c r="M3" s="64"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="44" t="s">
+      <c r="P3" s="67"/>
+      <c r="Q3" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="45"/>
-      <c r="S3" s="44" t="s">
+      <c r="R3" s="67"/>
+      <c r="S3" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="45"/>
-      <c r="U3" s="32" t="s">
+      <c r="T3" s="67"/>
+      <c r="U3" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="34"/>
-      <c r="W3" s="52" t="s">
+      <c r="V3" s="50"/>
+      <c r="W3" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="64" t="s">
+      <c r="X3" s="40"/>
+      <c r="Y3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="67" t="s">
+      <c r="Z3" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="AA3" s="68" t="s">
+      <c r="AA3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="AB3" s="67" t="s">
+      <c r="AB3" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="AC3" s="39" t="s">
+      <c r="AC3" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AD3" s="39" t="s">
+      <c r="AD3" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="AE3" s="55" t="s">
+      <c r="AE3" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="AF3" s="54" t="s">
+      <c r="AF3" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="AG3" s="57" t="s">
+      <c r="AG3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="AH3" s="39" t="s">
+      <c r="AH3" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="AI3" s="39" t="s">
+      <c r="AI3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="AJ3" s="50" t="s">
+      <c r="AJ3" s="37" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:36" s="20" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="49"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="21" t="s">
         <v>27</v>
       </c>
@@ -1167,12 +1167,12 @@
       <c r="E4" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="61"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="71"/>
       <c r="L4" s="22" t="s">
         <v>30</v>
       </c>
@@ -1212,35 +1212,21 @@
       <c r="X4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="70"/>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="56"/>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="58"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="51"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="K3:K4"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="Q2:U2"/>
@@ -1257,6 +1243,20 @@
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="K3:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/HicomIOS/Master/Template/Template_QuotationSummaryReport-Product.xlsx
+++ b/HicomIOS/Master/Template/Template_QuotationSummaryReport-Product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IM-Soft\_Ourdream\Hi-Com04_1\HicomIOS\Master\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F74F28-F006-4D32-A651-5D5A66FBC018}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D2E425-7C11-4850-B7F1-26CBEAB5B15E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>HI-COM CORPORATION (THAILAND) CO., LTD.</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>QTY</t>
+  </si>
+  <si>
+    <t>UPDATE DATE</t>
   </si>
 </sst>
 </file>
@@ -399,7 +402,7 @@
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -495,60 +498,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="187" fontId="5" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="5" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -564,7 +513,13 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -578,6 +533,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -601,10 +562,55 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -952,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:AK4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3:AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -974,18 +980,19 @@
     <col min="28" max="28" width="9.125" style="34"/>
     <col min="29" max="29" width="10.375" style="26" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10.75" style="26" bestFit="1" customWidth="1"/>
-    <col min="31" max="36" width="9.125" style="26"/>
+    <col min="31" max="31" width="13" style="26" bestFit="1" customWidth="1"/>
+    <col min="32" max="37" width="9.125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="10" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:37" s="10" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -995,18 +1002,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-      <c r="N1" s="53" t="s">
+      <c r="N1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="54" t="s">
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
       <c r="V1" s="4"/>
       <c r="W1" s="5"/>
       <c r="X1" s="6"/>
@@ -1015,23 +1022,24 @@
       <c r="AA1" s="14"/>
       <c r="AB1" s="9"/>
       <c r="AD1" s="11"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="14"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="14"/>
     </row>
-    <row r="2" spans="1:36" s="10" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+    <row r="2" spans="1:37" s="10" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="17"/>
@@ -1041,13 +1049,13 @@
       <c r="N2" s="7"/>
       <c r="O2" s="3"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="55" t="s">
+      <c r="Q2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
       <c r="V2" s="4"/>
       <c r="W2" s="5"/>
       <c r="X2" s="6"/>
@@ -1056,108 +1064,112 @@
       <c r="AA2" s="14"/>
       <c r="AB2" s="9"/>
       <c r="AD2" s="11"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="14"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="14"/>
     </row>
-    <row r="3" spans="1:36" s="20" customFormat="1" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:37" s="20" customFormat="1" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="59" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="61" t="s">
+      <c r="I3" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="47" t="s">
         <v>11</v>
       </c>
       <c r="K3" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="63" t="s">
+      <c r="L3" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="64"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="66" t="s">
+      <c r="M3" s="50"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="66" t="s">
+      <c r="P3" s="53"/>
+      <c r="Q3" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="67"/>
-      <c r="S3" s="66" t="s">
+      <c r="R3" s="53"/>
+      <c r="S3" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="67"/>
-      <c r="U3" s="49" t="s">
+      <c r="T3" s="53"/>
+      <c r="U3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="50"/>
-      <c r="W3" s="39" t="s">
+      <c r="V3" s="42"/>
+      <c r="W3" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="X3" s="40"/>
+      <c r="X3" s="61"/>
       <c r="Y3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="41" t="s">
+      <c r="Z3" s="62" t="s">
         <v>19</v>
       </c>
       <c r="AA3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="AB3" s="41" t="s">
+      <c r="AB3" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="AC3" s="43" t="s">
+      <c r="AC3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AD3" s="43" t="s">
+      <c r="AD3" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="AE3" s="45" t="s">
+      <c r="AE3" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF3" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="AF3" s="51" t="s">
+      <c r="AG3" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="AG3" s="47" t="s">
+      <c r="AH3" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="AH3" s="43" t="s">
+      <c r="AI3" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="AI3" s="43" t="s">
+      <c r="AJ3" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="AJ3" s="37" t="s">
+      <c r="AK3" s="58" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="20" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="57"/>
+    <row r="4" spans="1:37" s="20" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="57"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="21" t="s">
         <v>27</v>
       </c>
@@ -1167,11 +1179,11 @@
       <c r="E4" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="48"/>
       <c r="K4" s="71"/>
       <c r="L4" s="22" t="s">
         <v>30</v>
@@ -1213,20 +1225,36 @@
         <v>38</v>
       </c>
       <c r="Y4" s="30"/>
-      <c r="Z4" s="42"/>
+      <c r="Z4" s="63"/>
       <c r="AA4" s="33"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="44"/>
-      <c r="AJ4" s="38"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="72"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="69"/>
+      <c r="AH4" s="67"/>
+      <c r="AI4" s="48"/>
+      <c r="AJ4" s="48"/>
+      <c r="AK4" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="31">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="AK3:AK4"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="AE3:AE4"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="Q2:U2"/>
@@ -1243,20 +1271,6 @@
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="K3:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/HicomIOS/Master/Template/Template_QuotationSummaryReport-Product.xlsx
+++ b/HicomIOS/Master/Template/Template_QuotationSummaryReport-Product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IM-Soft\_Ourdream\Hi-Com04_1\HicomIOS\Master\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D2E425-7C11-4850-B7F1-26CBEAB5B15E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40837F21-F4BA-4982-B8E3-CDFE947190D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>HI-COM CORPORATION (THAILAND) CO., LTD.</t>
   </si>
@@ -402,7 +402,7 @@
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -498,6 +498,12 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -562,9 +568,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -610,7 +613,13 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -958,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK4"/>
+  <dimension ref="A1:AM4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3:AD4"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AE17" sqref="AE17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -980,19 +989,21 @@
     <col min="28" max="28" width="9.125" style="34"/>
     <col min="29" max="29" width="10.375" style="26" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10.75" style="26" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13" style="26" bestFit="1" customWidth="1"/>
-    <col min="32" max="37" width="9.125" style="26"/>
+    <col min="31" max="31" width="8.875" style="26" customWidth="1"/>
+    <col min="32" max="32" width="7.375" style="26" customWidth="1"/>
+    <col min="33" max="33" width="6.125" style="26" customWidth="1"/>
+    <col min="34" max="39" width="9.125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="10" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:39" s="10" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1002,18 +1013,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="36" t="s">
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
       <c r="V1" s="4"/>
       <c r="W1" s="5"/>
       <c r="X1" s="6"/>
@@ -1023,23 +1034,25 @@
       <c r="AB1" s="9"/>
       <c r="AD1" s="11"/>
       <c r="AE1" s="11"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="14"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="14"/>
     </row>
-    <row r="2" spans="1:37" s="10" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:39" s="10" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="17"/>
@@ -1049,13 +1062,13 @@
       <c r="N2" s="7"/>
       <c r="O2" s="3"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
       <c r="V2" s="4"/>
       <c r="W2" s="5"/>
       <c r="X2" s="6"/>
@@ -1065,111 +1078,115 @@
       <c r="AB2" s="9"/>
       <c r="AD2" s="11"/>
       <c r="AE2" s="11"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="14"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="14"/>
     </row>
-    <row r="3" spans="1:37" s="20" customFormat="1" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+    <row r="3" spans="1:39" s="20" customFormat="1" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="70" t="s">
+      <c r="K3" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="52" t="s">
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="52" t="s">
+      <c r="P3" s="55"/>
+      <c r="Q3" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="53"/>
-      <c r="S3" s="52" t="s">
+      <c r="R3" s="55"/>
+      <c r="S3" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="53"/>
-      <c r="U3" s="40" t="s">
+      <c r="T3" s="55"/>
+      <c r="U3" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="42"/>
-      <c r="W3" s="60" t="s">
+      <c r="V3" s="44"/>
+      <c r="W3" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="X3" s="61"/>
+      <c r="X3" s="62"/>
       <c r="Y3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="62" t="s">
+      <c r="Z3" s="63" t="s">
         <v>19</v>
       </c>
       <c r="AA3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="AB3" s="62" t="s">
+      <c r="AB3" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="AC3" s="47" t="s">
+      <c r="AC3" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="AD3" s="47" t="s">
+      <c r="AD3" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="AE3" s="47" t="s">
+      <c r="AE3" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="AF3" s="64" t="s">
+      <c r="AF3" s="74"/>
+      <c r="AG3" s="75"/>
+      <c r="AH3" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="AG3" s="68" t="s">
+      <c r="AI3" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="AH3" s="66" t="s">
+      <c r="AJ3" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="AI3" s="47" t="s">
+      <c r="AK3" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="AJ3" s="47" t="s">
+      <c r="AL3" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="AK3" s="58" t="s">
+      <c r="AM3" s="59" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:37" s="20" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="57"/>
-      <c r="B4" s="39"/>
+    <row r="4" spans="1:39" s="20" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="58"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="21" t="s">
         <v>27</v>
       </c>
@@ -1179,12 +1196,12 @@
       <c r="E4" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="71"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="22" t="s">
         <v>30</v>
       </c>
@@ -1225,36 +1242,45 @@
         <v>38</v>
       </c>
       <c r="Y4" s="30"/>
-      <c r="Z4" s="63"/>
+      <c r="Z4" s="64"/>
       <c r="AA4" s="33"/>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="69"/>
-      <c r="AH4" s="67"/>
-      <c r="AI4" s="48"/>
-      <c r="AJ4" s="48"/>
-      <c r="AK4" s="59"/>
+      <c r="AB4" s="64"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF4" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG4" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="70"/>
+      <c r="AJ4" s="68"/>
+      <c r="AK4" s="50"/>
+      <c r="AL4" s="50"/>
+      <c r="AM4" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="AK3:AK4"/>
+    <mergeCell ref="AM3:AM4"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Z3:Z4"/>
     <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AF3:AF4"/>
     <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AI3:AI4"/>
     <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="AK3:AK4"/>
+    <mergeCell ref="AL3:AL4"/>
     <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="U3:V3"/>
-    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AI3:AI4"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AE3:AG3"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="Q2:U2"/>
@@ -1270,7 +1296,6 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
